--- a/biology/Botanique/Triplaris/Triplaris.xlsx
+++ b/biology/Botanique/Triplaris/Triplaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Triplaris est un genre d'arbres dioïques de la famille des Polygonaceae originaires des Antilles et d'Amérique centrale.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (29 octobre 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (29 octobre 2018) :
 Triplaris americana L.
 Triplaris caracasana Cham.
 Triplaris cumingiana Fisch. &amp; Mey. ex C. A. Mey.
@@ -533,16 +547,16 @@
 Triplaris setosa Rusby
 Triplaris vestita Rusby
 Triplaris weigeltiana (Reichenbach) Kuntze
-Selon GRIN            (29 octobre 2018)[2] :
+Selon GRIN            (29 octobre 2018) :
 Triplaris americana L.
 Triplaris cumingiana Fisch. &amp; C. A. Mey.
 Triplaris melaenodendron (Bertol.) Standl. &amp; Steyerm.
 Triplaris weigeltiana (Rchb.) Kuntze
-Selon ITIS      (29 octobre 2018)[3] :
+Selon ITIS      (29 octobre 2018) :
 Triplaris americana L.
 Triplaris caracasana Cham.
 Triplaris cumingiana Fisch. &amp; C.A. Mey. ex C.A. Mey.
-Selon NCBI  (29 octobre 2018)[4] :
+Selon NCBI  (29 octobre 2018) :
 Triplaris americana
 Triplaris caracasana
 Triplaris cumingiana
@@ -556,7 +570,7 @@
 Triplaris purdiei
 Triplaris setosa
 Triplaris weigeltiana
-Selon The Plant List            (29 octobre 2018)[5] :
+Selon The Plant List            (29 octobre 2018) :
 Triplaris americana L.
 Triplaris caracasana Cham.
 Triplaris cumingiana Fisch. &amp; C.A.Mey.
@@ -576,7 +590,7 @@
 Triplaris setosa Rusby
 Triplaris vestita Rusby
 Triplaris weigeltiana (Rchb.) Kuntze
-Selon Tropicos                                           (29 octobre 2018)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (29 octobre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Triplaris americana L.
 Triplaris arnottiana Meisn.
 Triplaris auriculata Meisn.
